--- a/GATEWAY/A1#111#MEDIAMX2/Mediam Servizi srl/Linfa/1.7.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MEDIAMX2/Mediam Servizi srl/Linfa/1.7.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Marco - Mediam\Linfa\FSE2\Accreditamento\GATEWAY\A1#111#MEDIAMX2\Mediam Servizi srl\Linfa\1.7.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDACEC24-2B1C-4B5E-B9C9-9F85A2D5120F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A0A692-5B66-490A-ADE1-E9C9720DD449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4554,12 +4554,6 @@
     <t>Non applicabile per visita specialistica di nutrizione. Non è previsto un esame ginecologico.</t>
   </si>
   <si>
-    <t>82c0033144657801</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.52c8528e96f8a3ee0fcb77768a3974548fbcc74c82bce9d0c5196722e7e0afba.19d2280693^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
@@ -4792,9 +4786,6 @@
     <t>2024-05-30T09:07:08.00Z</t>
   </si>
   <si>
-    <t>2024-05-30T07:11:12:00Z</t>
-  </si>
-  <si>
     <t>2024-05-30T08:55:11:00Z</t>
   </si>
   <si>
@@ -4844,6 +4835,15 @@
   </si>
   <si>
     <t>2024-05-30T10:21:50:00Z</t>
+  </si>
+  <si>
+    <t>aa22adfa208e868b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.52c8528e96f8a3ee0fcb77768a3974548fbcc74c82bce9d0c5196722e7e0afba.de506555aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-06-07T08:09:35:00Z</t>
   </si>
 </sst>
 </file>
@@ -7777,10 +7777,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G387" sqref="G387"/>
+      <selection pane="bottomRight" activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7823,7 +7823,7 @@
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D2" s="41"/>
       <c r="F2" s="12"/>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="49" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D3" s="41"/>
       <c r="F3" s="12"/>
@@ -7871,7 +7871,7 @@
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="49" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="4"/>
@@ -7895,7 +7895,7 @@
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
       <c r="C5" s="49" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D5" s="41"/>
       <c r="F5" s="12"/>
@@ -9039,13 +9039,13 @@
         <v>45442</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J39" s="25" t="s">
         <v>138</v>
@@ -9058,13 +9058,13 @@
         <v>138</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P39" s="37" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="Q39" s="25" t="s">
         <v>845</v>
@@ -9333,13 +9333,13 @@
         <v>45442</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J47" s="25" t="s">
         <v>138</v>
@@ -9352,13 +9352,13 @@
         <v>138</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="O47" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q47" s="25" t="s">
         <v>845</v>
@@ -9635,7 +9635,7 @@
         <v>45441</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -9650,13 +9650,13 @@
         <v>138</v>
       </c>
       <c r="N55" s="37" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="O55" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q55" s="25" t="s">
         <v>845</v>
@@ -13027,7 +13027,7 @@
         <v>45442</v>
       </c>
       <c r="G154" s="23" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H154" s="24" t="s">
         <v>850</v>
@@ -13050,7 +13050,7 @@
         <v>138</v>
       </c>
       <c r="P154" s="37" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q154" s="25" t="s">
         <v>845</v>
@@ -13094,7 +13094,7 @@
       <c r="N155" s="25"/>
       <c r="O155" s="25"/>
       <c r="P155" s="25" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="Q155" s="25"/>
       <c r="R155" s="26"/>
@@ -13158,16 +13158,16 @@
         <v>343</v>
       </c>
       <c r="F157" s="36">
-        <v>45442</v>
+        <v>45450</v>
       </c>
       <c r="G157" s="23" t="s">
-        <v>934</v>
+        <v>951</v>
       </c>
       <c r="H157" s="24" t="s">
-        <v>855</v>
+        <v>949</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>856</v>
+        <v>950</v>
       </c>
       <c r="J157" s="25" t="s">
         <v>138</v>
@@ -13213,13 +13213,13 @@
         <v>45442</v>
       </c>
       <c r="G158" s="23" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I158" s="24" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J158" s="25" t="s">
         <v>138</v>
@@ -13232,13 +13232,13 @@
         <v>138</v>
       </c>
       <c r="N158" s="25" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="O158" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P158" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q158" s="25" t="s">
         <v>845</v>
@@ -13269,13 +13269,13 @@
         <v>45442</v>
       </c>
       <c r="G159" s="23" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I159" s="24" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>138</v>
@@ -13288,13 +13288,13 @@
         <v>138</v>
       </c>
       <c r="N159" s="25" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P159" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q159" s="25" t="s">
         <v>845</v>
@@ -13325,13 +13325,13 @@
         <v>45442</v>
       </c>
       <c r="G160" s="23" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H160" s="24" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I160" s="24" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J160" s="25" t="s">
         <v>138</v>
@@ -13344,13 +13344,13 @@
         <v>138</v>
       </c>
       <c r="N160" s="25" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="O160" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P160" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q160" s="25" t="s">
         <v>845</v>
@@ -13381,13 +13381,13 @@
         <v>45442</v>
       </c>
       <c r="G161" s="23" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>138</v>
@@ -13400,13 +13400,13 @@
         <v>138</v>
       </c>
       <c r="N161" s="25" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="O161" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P161" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q161" s="25" t="s">
         <v>845</v>
@@ -13437,13 +13437,13 @@
         <v>45442</v>
       </c>
       <c r="G162" s="23" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="H162" s="24" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="I162" s="24" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>138</v>
@@ -13456,13 +13456,13 @@
         <v>138</v>
       </c>
       <c r="N162" s="25" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="O162" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P162" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q162" s="25" t="s">
         <v>845</v>
@@ -13493,13 +13493,13 @@
         <v>45442</v>
       </c>
       <c r="G163" s="23" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="H163" s="24" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I163" s="24" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J163" s="25" t="s">
         <v>138</v>
@@ -13512,13 +13512,13 @@
         <v>138</v>
       </c>
       <c r="N163" s="25" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="O163" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P163" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q163" s="25" t="s">
         <v>845</v>
@@ -13549,13 +13549,13 @@
         <v>45442</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="H164" s="24" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="I164" s="24" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J164" s="25" t="s">
         <v>138</v>
@@ -13568,13 +13568,13 @@
         <v>138</v>
       </c>
       <c r="N164" s="25" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="O164" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P164" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q164" s="25" t="s">
         <v>845</v>
@@ -13605,13 +13605,13 @@
         <v>45442</v>
       </c>
       <c r="G165" s="23" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H165" s="24" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I165" s="24" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>138</v>
@@ -13624,13 +13624,13 @@
         <v>138</v>
       </c>
       <c r="N165" s="25" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="O165" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P165" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q165" s="25" t="s">
         <v>845</v>
@@ -13661,13 +13661,13 @@
         <v>45442</v>
       </c>
       <c r="G166" s="23" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H166" s="24" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I166" s="24" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="J166" s="25" t="s">
         <v>138</v>
@@ -13680,13 +13680,13 @@
         <v>138</v>
       </c>
       <c r="N166" s="25" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="O166" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P166" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q166" s="25" t="s">
         <v>845</v>
@@ -13717,13 +13717,13 @@
         <v>45442</v>
       </c>
       <c r="G167" s="23" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H167" s="24" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>138</v>
@@ -13736,13 +13736,13 @@
         <v>138</v>
       </c>
       <c r="N167" s="25" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="O167" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P167" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q167" s="25" t="s">
         <v>845</v>
@@ -13773,13 +13773,13 @@
         <v>45442</v>
       </c>
       <c r="G168" s="23" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -13792,13 +13792,13 @@
         <v>138</v>
       </c>
       <c r="N168" s="25" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="O168" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P168" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q168" s="25" t="s">
         <v>845</v>
@@ -13829,13 +13829,13 @@
         <v>45442</v>
       </c>
       <c r="G169" s="23" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H169" s="24" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="I169" s="24" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J169" s="25" t="s">
         <v>138</v>
@@ -13848,13 +13848,13 @@
         <v>138</v>
       </c>
       <c r="N169" s="25" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="O169" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P169" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q169" s="25" t="s">
         <v>845</v>
@@ -13885,13 +13885,13 @@
         <v>45442</v>
       </c>
       <c r="G170" s="23" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H170" s="24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I170" s="24" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="J170" s="25" t="s">
         <v>138</v>
@@ -13904,13 +13904,13 @@
         <v>138</v>
       </c>
       <c r="N170" s="25" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="O170" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P170" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q170" s="25" t="s">
         <v>845</v>
@@ -13941,13 +13941,13 @@
         <v>45442</v>
       </c>
       <c r="G171" s="23" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="H171" s="24" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="I171" s="24" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J171" s="25" t="s">
         <v>138</v>
@@ -13960,13 +13960,13 @@
         <v>138</v>
       </c>
       <c r="N171" s="25" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="O171" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P171" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q171" s="25" t="s">
         <v>845</v>
@@ -13997,13 +13997,13 @@
         <v>45442</v>
       </c>
       <c r="G172" s="23" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="H172" s="24" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="I172" s="24" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J172" s="25" t="s">
         <v>138</v>
@@ -14016,13 +14016,13 @@
         <v>138</v>
       </c>
       <c r="N172" s="25" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="O172" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P172" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q172" s="25" t="s">
         <v>845</v>
@@ -14053,13 +14053,13 @@
         <v>45442</v>
       </c>
       <c r="G173" s="23" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H173" s="24" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="I173" s="24" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J173" s="25" t="s">
         <v>138</v>
@@ -14072,13 +14072,13 @@
         <v>138</v>
       </c>
       <c r="N173" s="25" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="O173" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P173" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q173" s="25" t="s">
         <v>845</v>
@@ -14109,13 +14109,13 @@
         <v>45442</v>
       </c>
       <c r="G174" s="23" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H174" s="24" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I174" s="24" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J174" s="25" t="s">
         <v>138</v>
@@ -14128,13 +14128,13 @@
         <v>138</v>
       </c>
       <c r="N174" s="25" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="O174" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P174" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q174" s="25" t="s">
         <v>845</v>
@@ -14165,13 +14165,13 @@
         <v>45442</v>
       </c>
       <c r="G175" s="23" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="I175" s="24" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J175" s="25" t="s">
         <v>138</v>
@@ -14184,13 +14184,13 @@
         <v>138</v>
       </c>
       <c r="N175" s="25" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="O175" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P175" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q175" s="25" t="s">
         <v>845</v>
@@ -14221,13 +14221,13 @@
         <v>45442</v>
       </c>
       <c r="G176" s="23" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H176" s="24" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="I176" s="24" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J176" s="25" t="s">
         <v>138</v>
@@ -14240,13 +14240,13 @@
         <v>138</v>
       </c>
       <c r="N176" s="25" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="O176" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P176" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="Q176" s="25" t="s">
         <v>845</v>
@@ -21213,7 +21213,7 @@
         <v>45441</v>
       </c>
       <c r="G381" s="23" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H381" s="24" t="s">
         <v>848</v>

--- a/GATEWAY/A1#111#MEDIAMX2/Mediam Servizi srl/Linfa/1.7.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MEDIAMX2/Mediam Servizi srl/Linfa/1.7.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Marco - Mediam\Linfa\FSE2\Accreditamento\GATEWAY\A1#111#MEDIAMX2\Mediam Servizi srl\Linfa\1.7.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A6757C-EB00-4024-B359-D35CBADE672E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E056C795-FC6A-479D-A008-7B83B3119EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4837,13 +4837,13 @@
     <t>2024-05-30T10:21:50:00Z</t>
   </si>
   <si>
-    <t>2024-06-10T10:16:42:00Z</t>
-  </si>
-  <si>
-    <t>ed25063f2d1ea274</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.70.4.4.52c8528e96f8a3ee0fcb77768a3974548fbcc74c82bce9d0c5196722e7e0afba.2f0cd5441a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-06-12T09:03:1:.00Z</t>
+  </si>
+  <si>
+    <t>9160b14b56de63e5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.70.4.4.52c8528e96f8a3ee0fcb77768a3974548fbcc74c82bce9d0c5196722e7e0afba.29e5a03de9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -7780,7 +7780,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="P155" sqref="P155"/>
+      <selection pane="bottomRight" activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13154,7 +13154,7 @@
         <v>343</v>
       </c>
       <c r="F157" s="36">
-        <v>45453</v>
+        <v>45455</v>
       </c>
       <c r="G157" s="23" t="s">
         <v>949</v>

--- a/GATEWAY/A1#111#MEDIAMX2/Mediam Servizi srl/Linfa/1.7.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#MEDIAMX2/Mediam Servizi srl/Linfa/1.7.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Marco - Mediam\Linfa\FSE2\Accreditamento\GATEWAY\A1#111#MEDIAMX2\Mediam Servizi srl\Linfa\1.7.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E056C795-FC6A-479D-A008-7B83B3119EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E369D90-1833-4EB7-99B0-977D83461C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2323" uniqueCount="951">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4557,9 +4557,6 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Non viene permessa la firma digitale del referto e l'invio del referto al repository (se previsti). </t>
-  </si>
-  <si>
     <t>dc04f46d5129d99e</t>
   </si>
   <si>
@@ -4747,12 +4744,6 @@
     <t>Mediam Servizi srl</t>
   </si>
   <si>
-    <t xml:space="preserve">Non viene permessa la firma digitale del referto e l'invio del referto al repository (se previsti) </t>
-  </si>
-  <si>
-    <t>Non viene permessa la firma digitale del referto e l'invio del referto al repository (se previsti). Il messaggio di errore è "Connessione al gateway in timeout"</t>
-  </si>
-  <si>
     <t>7579d380a33be834</t>
   </si>
   <si>
@@ -4844,6 +4835,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.70.4.4.52c8528e96f8a3ee0fcb77768a3974548fbcc74c82bce9d0c5196722e7e0afba.29e5a03de9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Non viene permessa la firma digitale del referto e l'invio del referto al repository (se previsti) . Le visite che hanno un referto con validazione andata in timeout vengono inserite nello stesso elenco di quelle con validazione andata in errore, con la specifica del problema di timeout. L'operatore, senza riaprire la visita, può provare a inviare nuovamente il referto al FSE nel momento che ritiene opportuno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non viene permessa la firma digitale del referto e l'invio del referto al repository (se previsti) . Le visite che hanno un referto con errore di validazione vengono inserite in un elenco, in modo che l'operatore possa riaprire una visita (e cioè renderla nuovamente modificabile), correggere l'errore e riprovare la validazione, inviando nuovamente referto e CDA corretti al FSE. </t>
   </si>
 </sst>
 </file>
@@ -7777,10 +7774,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I157" sqref="I157"/>
+      <selection pane="bottomRight" activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7823,7 +7820,7 @@
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D2" s="41"/>
       <c r="F2" s="12"/>
@@ -7848,7 +7845,7 @@
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="49" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D3" s="41"/>
       <c r="F3" s="12"/>
@@ -7871,7 +7868,7 @@
       <c r="A4" s="45"/>
       <c r="B4" s="46"/>
       <c r="C4" s="49" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="4"/>
@@ -7895,7 +7892,7 @@
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
       <c r="C5" s="49" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D5" s="41"/>
       <c r="F5" s="12"/>
@@ -9019,7 +9016,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="225" x14ac:dyDescent="0.25">
       <c r="A39" s="20">
         <v>32</v>
       </c>
@@ -9039,10 +9036,10 @@
         <v>45442</v>
       </c>
       <c r="G39" s="23" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>855</v>
@@ -9058,13 +9055,13 @@
         <v>138</v>
       </c>
       <c r="N39" s="25" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>138</v>
       </c>
       <c r="P39" s="37" t="s">
-        <v>919</v>
+        <v>950</v>
       </c>
       <c r="Q39" s="25" t="s">
         <v>845</v>
@@ -9333,10 +9330,10 @@
         <v>45442</v>
       </c>
       <c r="G47" s="23" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="I47" s="24" t="s">
         <v>855</v>
@@ -9352,13 +9349,13 @@
         <v>138</v>
       </c>
       <c r="N47" s="25" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O47" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P47" s="25" t="s">
-        <v>856</v>
+      <c r="P47" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q47" s="25" t="s">
         <v>845</v>
@@ -9635,7 +9632,7 @@
         <v>45441</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24"/>
@@ -9650,13 +9647,13 @@
         <v>138</v>
       </c>
       <c r="N55" s="37" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O55" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P55" s="25" t="s">
-        <v>920</v>
+      <c r="P55" s="37" t="s">
+        <v>949</v>
       </c>
       <c r="Q55" s="25" t="s">
         <v>845</v>
@@ -13027,7 +13024,7 @@
         <v>45442</v>
       </c>
       <c r="G154" s="23" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H154" s="24" t="s">
         <v>850</v>
@@ -13157,13 +13154,13 @@
         <v>45455</v>
       </c>
       <c r="G157" s="23" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H157" s="24" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="I157" s="24" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="J157" s="25" t="s">
         <v>138</v>
@@ -13209,13 +13206,13 @@
         <v>45442</v>
       </c>
       <c r="G158" s="23" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="I158" s="24" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J158" s="25" t="s">
         <v>138</v>
@@ -13228,13 +13225,13 @@
         <v>138</v>
       </c>
       <c r="N158" s="25" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="O158" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P158" s="25" t="s">
-        <v>856</v>
+      <c r="P158" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q158" s="25" t="s">
         <v>845</v>
@@ -13265,13 +13262,13 @@
         <v>45442</v>
       </c>
       <c r="G159" s="23" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="H159" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="I159" s="24" t="s">
         <v>857</v>
-      </c>
-      <c r="I159" s="24" t="s">
-        <v>858</v>
       </c>
       <c r="J159" s="25" t="s">
         <v>138</v>
@@ -13284,13 +13281,13 @@
         <v>138</v>
       </c>
       <c r="N159" s="25" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O159" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P159" s="25" t="s">
-        <v>856</v>
+      <c r="P159" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q159" s="25" t="s">
         <v>845</v>
@@ -13321,13 +13318,13 @@
         <v>45442</v>
       </c>
       <c r="G160" s="23" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="H160" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="I160" s="24" t="s">
         <v>863</v>
-      </c>
-      <c r="I160" s="24" t="s">
-        <v>864</v>
       </c>
       <c r="J160" s="25" t="s">
         <v>138</v>
@@ -13340,13 +13337,13 @@
         <v>138</v>
       </c>
       <c r="N160" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O160" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P160" s="25" t="s">
-        <v>856</v>
+      <c r="P160" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q160" s="25" t="s">
         <v>845</v>
@@ -13377,13 +13374,13 @@
         <v>45442</v>
       </c>
       <c r="G161" s="23" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H161" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="I161" s="24" t="s">
         <v>866</v>
-      </c>
-      <c r="I161" s="24" t="s">
-        <v>867</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>138</v>
@@ -13396,13 +13393,13 @@
         <v>138</v>
       </c>
       <c r="N161" s="25" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="O161" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P161" s="25" t="s">
-        <v>856</v>
+      <c r="P161" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q161" s="25" t="s">
         <v>845</v>
@@ -13433,13 +13430,13 @@
         <v>45442</v>
       </c>
       <c r="G162" s="23" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H162" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="I162" s="24" t="s">
         <v>869</v>
-      </c>
-      <c r="I162" s="24" t="s">
-        <v>870</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>138</v>
@@ -13452,13 +13449,13 @@
         <v>138</v>
       </c>
       <c r="N162" s="25" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O162" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P162" s="25" t="s">
-        <v>856</v>
+      <c r="P162" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q162" s="25" t="s">
         <v>845</v>
@@ -13489,13 +13486,13 @@
         <v>45442</v>
       </c>
       <c r="G163" s="23" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H163" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="I163" s="24" t="s">
         <v>872</v>
-      </c>
-      <c r="I163" s="24" t="s">
-        <v>873</v>
       </c>
       <c r="J163" s="25" t="s">
         <v>138</v>
@@ -13508,13 +13505,13 @@
         <v>138</v>
       </c>
       <c r="N163" s="25" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="O163" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P163" s="25" t="s">
-        <v>856</v>
+      <c r="P163" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q163" s="25" t="s">
         <v>845</v>
@@ -13545,13 +13542,13 @@
         <v>45442</v>
       </c>
       <c r="G164" s="23" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="H164" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="I164" s="24" t="s">
         <v>875</v>
-      </c>
-      <c r="I164" s="24" t="s">
-        <v>876</v>
       </c>
       <c r="J164" s="25" t="s">
         <v>138</v>
@@ -13564,13 +13561,13 @@
         <v>138</v>
       </c>
       <c r="N164" s="25" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O164" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P164" s="25" t="s">
-        <v>856</v>
+      <c r="P164" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q164" s="25" t="s">
         <v>845</v>
@@ -13601,13 +13598,13 @@
         <v>45442</v>
       </c>
       <c r="G165" s="23" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="H165" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="I165" s="24" t="s">
         <v>878</v>
-      </c>
-      <c r="I165" s="24" t="s">
-        <v>879</v>
       </c>
       <c r="J165" s="25" t="s">
         <v>138</v>
@@ -13620,13 +13617,13 @@
         <v>138</v>
       </c>
       <c r="N165" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="O165" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P165" s="25" t="s">
-        <v>856</v>
+      <c r="P165" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q165" s="25" t="s">
         <v>845</v>
@@ -13657,13 +13654,13 @@
         <v>45442</v>
       </c>
       <c r="G166" s="23" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="H166" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="I166" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="I166" s="24" t="s">
-        <v>882</v>
       </c>
       <c r="J166" s="25" t="s">
         <v>138</v>
@@ -13676,13 +13673,13 @@
         <v>138</v>
       </c>
       <c r="N166" s="25" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="O166" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P166" s="25" t="s">
-        <v>856</v>
+      <c r="P166" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q166" s="25" t="s">
         <v>845</v>
@@ -13713,13 +13710,13 @@
         <v>45442</v>
       </c>
       <c r="G167" s="23" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="H167" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="I167" s="24" t="s">
         <v>884</v>
-      </c>
-      <c r="I167" s="24" t="s">
-        <v>885</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>138</v>
@@ -13732,13 +13729,13 @@
         <v>138</v>
       </c>
       <c r="N167" s="25" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O167" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P167" s="25" t="s">
-        <v>856</v>
+      <c r="P167" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q167" s="25" t="s">
         <v>845</v>
@@ -13769,13 +13766,13 @@
         <v>45442</v>
       </c>
       <c r="G168" s="23" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="H168" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="I168" s="24" t="s">
         <v>887</v>
-      </c>
-      <c r="I168" s="24" t="s">
-        <v>888</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>138</v>
@@ -13788,13 +13785,13 @@
         <v>138</v>
       </c>
       <c r="N168" s="25" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="O168" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P168" s="25" t="s">
-        <v>856</v>
+      <c r="P168" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q168" s="25" t="s">
         <v>845</v>
@@ -13825,13 +13822,13 @@
         <v>45442</v>
       </c>
       <c r="G169" s="23" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="H169" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="I169" s="24" t="s">
         <v>890</v>
-      </c>
-      <c r="I169" s="24" t="s">
-        <v>891</v>
       </c>
       <c r="J169" s="25" t="s">
         <v>138</v>
@@ -13844,13 +13841,13 @@
         <v>138</v>
       </c>
       <c r="N169" s="25" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="O169" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P169" s="25" t="s">
-        <v>856</v>
+      <c r="P169" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q169" s="25" t="s">
         <v>845</v>
@@ -13881,13 +13878,13 @@
         <v>45442</v>
       </c>
       <c r="G170" s="23" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H170" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="I170" s="24" t="s">
         <v>893</v>
-      </c>
-      <c r="I170" s="24" t="s">
-        <v>894</v>
       </c>
       <c r="J170" s="25" t="s">
         <v>138</v>
@@ -13900,13 +13897,13 @@
         <v>138</v>
       </c>
       <c r="N170" s="25" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="O170" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P170" s="25" t="s">
-        <v>856</v>
+      <c r="P170" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q170" s="25" t="s">
         <v>845</v>
@@ -13937,13 +13934,13 @@
         <v>45442</v>
       </c>
       <c r="G171" s="23" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H171" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="I171" s="24" t="s">
         <v>896</v>
-      </c>
-      <c r="I171" s="24" t="s">
-        <v>897</v>
       </c>
       <c r="J171" s="25" t="s">
         <v>138</v>
@@ -13956,13 +13953,13 @@
         <v>138</v>
       </c>
       <c r="N171" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O171" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P171" s="25" t="s">
-        <v>856</v>
+      <c r="P171" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q171" s="25" t="s">
         <v>845</v>
@@ -13993,13 +13990,13 @@
         <v>45442</v>
       </c>
       <c r="G172" s="23" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H172" s="24" t="s">
+        <v>898</v>
+      </c>
+      <c r="I172" s="24" t="s">
         <v>899</v>
-      </c>
-      <c r="I172" s="24" t="s">
-        <v>900</v>
       </c>
       <c r="J172" s="25" t="s">
         <v>138</v>
@@ -14012,13 +14009,13 @@
         <v>138</v>
       </c>
       <c r="N172" s="25" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="O172" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P172" s="25" t="s">
-        <v>856</v>
+      <c r="P172" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q172" s="25" t="s">
         <v>845</v>
@@ -14049,13 +14046,13 @@
         <v>45442</v>
       </c>
       <c r="G173" s="23" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H173" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="I173" s="24" t="s">
         <v>902</v>
-      </c>
-      <c r="I173" s="24" t="s">
-        <v>903</v>
       </c>
       <c r="J173" s="25" t="s">
         <v>138</v>
@@ -14068,13 +14065,13 @@
         <v>138</v>
       </c>
       <c r="N173" s="25" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="O173" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P173" s="25" t="s">
-        <v>856</v>
+      <c r="P173" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q173" s="25" t="s">
         <v>845</v>
@@ -14105,13 +14102,13 @@
         <v>45442</v>
       </c>
       <c r="G174" s="23" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="H174" s="24" t="s">
+        <v>904</v>
+      </c>
+      <c r="I174" s="24" t="s">
         <v>905</v>
-      </c>
-      <c r="I174" s="24" t="s">
-        <v>906</v>
       </c>
       <c r="J174" s="25" t="s">
         <v>138</v>
@@ -14124,13 +14121,13 @@
         <v>138</v>
       </c>
       <c r="N174" s="25" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O174" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P174" s="25" t="s">
-        <v>856</v>
+      <c r="P174" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q174" s="25" t="s">
         <v>845</v>
@@ -14161,13 +14158,13 @@
         <v>45442</v>
       </c>
       <c r="G175" s="23" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="H175" s="24" t="s">
+        <v>907</v>
+      </c>
+      <c r="I175" s="24" t="s">
         <v>908</v>
-      </c>
-      <c r="I175" s="24" t="s">
-        <v>909</v>
       </c>
       <c r="J175" s="25" t="s">
         <v>138</v>
@@ -14180,13 +14177,13 @@
         <v>138</v>
       </c>
       <c r="N175" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O175" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P175" s="25" t="s">
-        <v>856</v>
+      <c r="P175" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q175" s="25" t="s">
         <v>845</v>
@@ -14217,13 +14214,13 @@
         <v>45442</v>
       </c>
       <c r="G176" s="23" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H176" s="24" t="s">
+        <v>910</v>
+      </c>
+      <c r="I176" s="24" t="s">
         <v>911</v>
-      </c>
-      <c r="I176" s="24" t="s">
-        <v>912</v>
       </c>
       <c r="J176" s="25" t="s">
         <v>138</v>
@@ -14236,13 +14233,13 @@
         <v>138</v>
       </c>
       <c r="N176" s="25" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O176" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="P176" s="25" t="s">
-        <v>856</v>
+      <c r="P176" s="37" t="s">
+        <v>950</v>
       </c>
       <c r="Q176" s="25" t="s">
         <v>845</v>
@@ -21209,7 +21206,7 @@
         <v>45441</v>
       </c>
       <c r="G381" s="23" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="H381" s="24" t="s">
         <v>848</v>
